--- a/Team-Data/2014-15/3-9-2014-15.xlsx
+++ b/Team-Data/2014-15/3-9-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
         <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.468</v>
+        <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
         <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.8</v>
+        <v>102.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,7 +826,7 @@
         <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
@@ -777,10 +844,10 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>4</v>
@@ -789,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -801,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -816,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,7 +933,7 @@
         <v>38.9</v>
       </c>
       <c r="J3" t="n">
-        <v>88.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.44</v>
@@ -878,7 +945,7 @@
         <v>24.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O3" t="n">
         <v>15.1</v>
@@ -887,19 +954,19 @@
         <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R3" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
         <v>44</v>
       </c>
       <c r="U3" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
         <v>13.9</v>
@@ -908,13 +975,13 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>18.2</v>
@@ -923,19 +990,19 @@
         <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>10</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -965,19 +1032,19 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1141,13 +1208,13 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1156,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.452</v>
+        <v>0.459</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1242,7 +1309,7 @@
         <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
       <c r="O5" t="n">
         <v>17.1</v>
@@ -1257,40 +1324,40 @@
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.9</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,16 +1369,16 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1320,16 +1387,16 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1338,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1356,16 +1423,16 @@
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.609</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1418,19 +1485,19 @@
         <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
         <v>21.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
         <v>0.787</v>
@@ -1448,40 +1515,40 @@
         <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
         <v>6.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1523,25 +1590,25 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1675,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1687,19 +1754,19 @@
         <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1711,25 +1778,25 @@
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="n">
         <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.641</v>
+        <v>0.631</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,40 +1843,40 @@
         <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N8" t="n">
         <v>0.35</v>
       </c>
       <c r="O8" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P8" t="n">
         <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.6</v>
@@ -1818,7 +1885,7 @@
         <v>8.4</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
@@ -1830,37 +1897,37 @@
         <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
         <v>4.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1869,22 +1936,22 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
         <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
         <v>41</v>
       </c>
       <c r="G9" t="n">
-        <v>0.359</v>
+        <v>0.349</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J9" t="n">
         <v>86.7</v>
@@ -1973,10 +2040,10 @@
         <v>0.314</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q9" t="n">
         <v>0.733</v>
@@ -1985,7 +2052,7 @@
         <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T9" t="n">
         <v>44.7</v>
@@ -1994,7 +2061,7 @@
         <v>21.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2003,28 +2070,28 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
         <v>22.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>24</v>
@@ -2048,31 +2115,31 @@
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV9" t="n">
         <v>12</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
@@ -2081,7 +2148,7 @@
         <v>16</v>
       </c>
       <c r="AY9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2221,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2233,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
@@ -2275,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="J11" t="n">
-        <v>86.8</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L11" t="n">
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O11" t="n">
         <v>16.2</v>
@@ -2343,7 +2410,7 @@
         <v>21.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R11" t="n">
         <v>10.3</v>
@@ -2352,10 +2419,10 @@
         <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="V11" t="n">
         <v>14.7</v>
@@ -2376,13 +2443,13 @@
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.6</v>
+        <v>109.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
         <v>11</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0.677</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,25 +2580,25 @@
         <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
         <v>43.8</v>
@@ -2549,22 +2616,22 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2609,7 +2676,7 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
         <v>13</v>
@@ -2624,10 +2691,10 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -2746,31 +2813,31 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2782,13 +2849,13 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR13" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>18</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.641</v>
+        <v>0.635</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.47</v>
@@ -2877,19 +2944,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P14" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2901,16 +2968,16 @@
         <v>42.4</v>
       </c>
       <c r="U14" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V14" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>3.2</v>
@@ -2922,16 +2989,16 @@
         <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>106</v>
+        <v>106.3</v>
       </c>
       <c r="AC14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6</v>
       </c>
-      <c r="AD14" t="n">
-        <v>4</v>
-      </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2961,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2979,7 +3046,7 @@
         <v>21</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>2</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.262</v>
+        <v>0.258</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3092,25 +3159,25 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3131,13 +3198,13 @@
         <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN15" t="n">
         <v>17</v>
@@ -3146,22 +3213,22 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3182,7 +3249,7 @@
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.714</v>
+        <v>0.71</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,10 +3299,10 @@
         <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L16" t="n">
         <v>5.1</v>
@@ -3247,22 +3314,22 @@
         <v>0.333</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
         <v>0.774</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
         <v>32.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
         <v>21.9</v>
@@ -3271,28 +3338,28 @@
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB16" t="n">
         <v>99.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,16 +3389,16 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>21</v>
@@ -3364,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>0.444</v>
+        <v>0.452</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J17" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.456</v>
@@ -3426,34 +3493,34 @@
         <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P17" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.3</v>
@@ -3465,25 +3532,25 @@
         <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>18</v>
@@ -3507,19 +3574,19 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3537,13 +3604,13 @@
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.524</v>
+        <v>0.532</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,37 +3663,37 @@
         <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
         <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
         <v>23.3</v>
@@ -3644,25 +3711,25 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -3671,16 +3738,16 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3689,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3722,13 +3789,13 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
         <v>14</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.226</v>
+        <v>0.23</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J19" t="n">
         <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O19" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T19" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
@@ -3823,7 +3890,7 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
         <v>19.5</v>
@@ -3832,13 +3899,13 @@
         <v>21.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="n">
         <v>-7.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3856,7 +3923,7 @@
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3877,13 +3944,13 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT19" t="n">
         <v>24</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -3960,49 +4027,49 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
       <c r="O20" t="n">
         <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.765</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,55 +4099,55 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK20" t="n">
         <v>13</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
         <v>8</v>
       </c>
-      <c r="AL20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6</v>
-      </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
         <v>8</v>
       </c>
-      <c r="AR20" t="n">
-        <v>10</v>
-      </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -4124,34 +4191,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.194</v>
+        <v>0.197</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.431</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N21" t="n">
         <v>0.346</v>
@@ -4160,19 +4227,19 @@
         <v>14.4</v>
       </c>
       <c r="P21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
         <v>21.3</v>
@@ -4181,10 +4248,10 @@
         <v>14.4</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
@@ -4196,19 +4263,19 @@
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>30</v>
@@ -4217,10 +4284,10 @@
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ22" t="n">
         <v>6</v>
@@ -4417,13 +4484,13 @@
         <v>26</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4444,13 +4511,13 @@
         <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.354</v>
@@ -4524,49 +4591,49 @@
         <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.729</v>
       </c>
       <c r="R23" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T23" t="n">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
@@ -4578,10 +4645,10 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>24</v>
@@ -4590,7 +4657,7 @@
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,10 +4678,10 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU23" t="n">
         <v>26</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4784,13 +4851,13 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
@@ -4817,7 +4884,7 @@
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.508</v>
+        <v>0.516</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J25" t="n">
-        <v>86.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.352</v>
@@ -4897,40 +4964,40 @@
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T25" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V25" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA25" t="n">
         <v>20.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.9</v>
+        <v>105.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4945,16 +5012,16 @@
         <v>4</v>
       </c>
       <c r="AI25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
         <v>7</v>
@@ -4963,10 +5030,10 @@
         <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
         <v>6</v>
@@ -4981,16 +5048,16 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>10</v>
@@ -5178,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -5216,52 +5283,52 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="n">
         <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>0.339</v>
+        <v>0.344</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
         <v>80.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P27" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="T27" t="n">
         <v>44.7</v>
@@ -5276,25 +5343,25 @@
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.4</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5357,10 +5424,10 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.623</v>
+        <v>0.629</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,43 +5483,43 @@
         <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O28" t="n">
         <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>23.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
@@ -5476,10 +5543,10 @@
         <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -5494,10 +5561,10 @@
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,40 +5573,40 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
@@ -5551,7 +5618,7 @@
         <v>11</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5706,25 +5773,25 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA29" t="n">
         <v>11</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
         <v>20</v>
@@ -5855,7 +5922,7 @@
         <v>30</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -5873,10 +5940,10 @@
         <v>18</v>
       </c>
       <c r="AO30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP30" t="n">
         <v>16</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>15</v>
       </c>
       <c r="AQ30" t="n">
         <v>25</v>
@@ -5885,10 +5952,10 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5897,13 +5964,13 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>8</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
         <v>10.6</v>
       </c>
       <c r="S31" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U31" t="n">
         <v>24.1</v>
@@ -6001,28 +6068,28 @@
         <v>15.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
         <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB31" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6052,46 +6119,46 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-9-2014-15</t>
+          <t>2015-03-09</t>
         </is>
       </c>
     </row>
